--- a/data/trans_camb/P22_R4-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P22_R4-Clase-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>3.872203079826486</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>12.43465770746914</v>
+        <v>12.43465770746913</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-1.136764740160856</v>
@@ -664,7 +664,7 @@
         <v>2.465231230688949</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>9.070572338831004</v>
+        <v>9.070572338830999</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.509593988678358</v>
+        <v>-6.512048914540807</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.624694304080722</v>
+        <v>-3.967034438067775</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4512215597256744</v>
+        <v>0.6831037160741007</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-9.290127120619962</v>
+        <v>-8.473075485884381</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.040257234561157</v>
+        <v>-3.280597073543027</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>6.296186024177315</v>
+        <v>6.383671080606243</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-5.521173568571088</v>
+        <v>-5.730837847404779</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.831591424705509</v>
+        <v>-2.280116620445461</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>4.691910948393478</v>
+        <v>4.634737041936471</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.800047669429819</v>
+        <v>5.246465088067642</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.94613847472549</v>
+        <v>7.440352304672744</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11.57881230448321</v>
+        <v>11.42133670048954</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.130944951253537</v>
+        <v>5.172448861540931</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>10.6001130745634</v>
+        <v>10.25129317098625</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>18.51816389140495</v>
+        <v>18.43941461709586</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.252531395845497</v>
+        <v>3.363683614746037</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>7.145053475611579</v>
+        <v>6.715189350720514</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>12.86754342370066</v>
+        <v>13.0833081852036</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.1669566878795106</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5361416286687898</v>
+        <v>0.5361416286687893</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.04856368986751224</v>
@@ -769,7 +769,7 @@
         <v>0.1053170640408347</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.3875036288700262</v>
+        <v>0.3875036288700259</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2581326465236784</v>
+        <v>-0.2527713621145794</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1749675910712394</v>
+        <v>-0.1612416272715773</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.01569487529712281</v>
+        <v>0.02569732658133705</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3442059788992459</v>
+        <v>-0.3194255635045854</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1147589332823436</v>
+        <v>-0.1228703527405358</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2212606389981546</v>
+        <v>0.2425548578170025</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2122464338503071</v>
+        <v>-0.2284039051375215</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.07180321887195555</v>
+        <v>-0.08942798796562053</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.1749423512162922</v>
+        <v>0.1768792787580552</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2254138924611249</v>
+        <v>0.2467134526284223</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.3413397858249049</v>
+        <v>0.3643285263157532</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.5738075116461685</v>
+        <v>0.5606333949043781</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.2753332122252351</v>
+        <v>0.2689507418823916</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5780545766229062</v>
+        <v>0.5152972234734146</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9623866260850977</v>
+        <v>0.9569594015533068</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1528911596929459</v>
+        <v>0.1560552191794588</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3381089512561674</v>
+        <v>0.3115231346505417</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.598177524854776</v>
+        <v>0.6209346047069078</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-1.357803022410445</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8.297746329436729</v>
+        <v>8.297746329436723</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>1.990363605064696</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.721910781377567</v>
+        <v>-3.67294625391951</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-7.642263162379538</v>
+        <v>-8.007749482845911</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.367750982298929</v>
+        <v>1.122872691112673</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.688510299706643</v>
+        <v>-3.56016763099598</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.980427800605371</v>
+        <v>-3.528156240242984</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>5.015583057631046</v>
+        <v>5.561474043531475</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.008922131940867</v>
+        <v>-1.361171342496178</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-3.714443245494951</v>
+        <v>-4.598289779836455</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>5.574507860607925</v>
+        <v>5.393395578545037</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.80191790956217</v>
+        <v>10.07552428508459</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.235447020308222</v>
+        <v>4.786478331829455</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14.18780357485199</v>
+        <v>14.32133855320929</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.202057649173279</v>
+        <v>8.386912363495968</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>6.832508167561814</v>
+        <v>7.406478310597478</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>15.54534922776765</v>
+        <v>15.34855775007555</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>7.949747981045379</v>
+        <v>7.765265183767578</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>4.550702202853564</v>
+        <v>4.486569187492881</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>13.64725906002751</v>
+        <v>13.66822227320192</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.06013182043442534</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.3674749459655224</v>
+        <v>0.3674749459655222</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.1342400750944071</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1056153535437348</v>
+        <v>-0.1442737313763945</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2918873898606048</v>
+        <v>-0.308023535824433</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.06649285236038779</v>
+        <v>0.03989222589191969</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2187277753431117</v>
+        <v>-0.2225810889488123</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2399907267195293</v>
+        <v>-0.2134784325735582</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2549612494546754</v>
+        <v>0.3032121900823512</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.04843539509373385</v>
+        <v>-0.06761871061426175</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1813961252875883</v>
+        <v>-0.2188524639176593</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.2720966600918817</v>
+        <v>0.2592322978903219</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.5728461643418488</v>
+        <v>0.5166020503767493</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.2827348147368464</v>
+        <v>0.2490837831476151</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.7619835552367257</v>
+        <v>0.7534824915749575</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.6662882149851489</v>
+        <v>0.6783288213818531</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5597116040735752</v>
+        <v>0.6289650698262034</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.304718224687597</v>
+        <v>1.259927561097614</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4864716590848588</v>
+        <v>0.4759515912864919</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2726051404386294</v>
+        <v>0.2776705622654901</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.8158627738925219</v>
+        <v>0.8274760524247048</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>-2.400970969741557</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>1.916990737795368</v>
+        <v>1.91699073779537</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.031423651300939</v>
+        <v>-5.174855042383921</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-6.315659519304595</v>
+        <v>-6.714695400568381</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.360236528241606</v>
+        <v>-2.866060897074209</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.829724132548867</v>
+        <v>-3.218859122148919</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-4.120267822089333</v>
+        <v>-3.955738017334387</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.4908752241469031</v>
+        <v>-0.05517984414384847</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-3.684251270621077</v>
+        <v>-3.665071036785225</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-4.972351101256237</v>
+        <v>-5.027124322648254</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.077207503350411</v>
+        <v>-1.346592551053224</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7506979663325615</v>
+        <v>0.7963183635025348</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.7240804462964554</v>
+        <v>-1.260177597652691</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.176123867921796</v>
+        <v>4.055635000052611</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.395814804654074</v>
+        <v>6.510209980027098</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>6.853297204885554</v>
+        <v>6.751594618443861</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>10.84999211526542</v>
+        <v>10.33020713859398</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.227748572564596</v>
+        <v>1.339930203432577</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-0.08833055308904963</v>
+        <v>-0.09534530982471974</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>4.782635149209432</v>
+        <v>4.582472975854252</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>-0.3541794784803586</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.282785085001309</v>
+        <v>0.2827850850013092</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.5581424738289661</v>
+        <v>-0.5799484141830853</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.7426955224153016</v>
+        <v>-0.7563227412921392</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.392251156254327</v>
+        <v>-0.3411929171726797</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.4447801541879275</v>
+        <v>-0.4274145459927857</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5147587180279444</v>
+        <v>-0.5345945009793645</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.02112267867712229</v>
+        <v>-0.05158563336476495</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.4524735064453549</v>
+        <v>-0.4431378434170266</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.6013875222705687</v>
+        <v>-0.6071650240255212</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1528257778914759</v>
+        <v>-0.1574565143539519</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1475265382706915</v>
+        <v>0.1571912660885473</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.1279717975028855</v>
+        <v>-0.1787275592785292</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.7664694250891663</v>
+        <v>0.7032570003576184</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>2.333839266958712</v>
+        <v>2.223727018457029</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.388564623668906</v>
+        <v>2.351649123322046</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>3.475516298070145</v>
+        <v>3.514255541889139</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.251007289863632</v>
+        <v>0.2296222972957426</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.02645648758529433</v>
+        <v>0.01973821194790861</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.8588065406491433</v>
+        <v>0.8447240074468448</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-2.034248079751472</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.5738182101955216</v>
+        <v>0.5738182101955209</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-1.000344736664891</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.374085878698795</v>
+        <v>-3.286745166510092</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.770547685758794</v>
+        <v>-3.794814537926389</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.348168744120453</v>
+        <v>-1.453766556472246</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.384697818350442</v>
+        <v>-3.552854434984638</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-4.914917631041204</v>
+        <v>-5.099800925771322</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2497499040945213</v>
+        <v>0.091462686508631</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.719379763261583</v>
+        <v>-2.713799037801575</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-3.539930993126686</v>
+        <v>-3.477706191848867</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.1656888901298157</v>
+        <v>0.0337824210521628</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.03821816456442935</v>
+        <v>0.1022989335361707</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.3142763513066014</v>
+        <v>-0.2928295231871393</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.713499138220653</v>
+        <v>2.777271602032946</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.611579783556615</v>
+        <v>1.878266573410701</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-0.465773508607944</v>
+        <v>-0.392533328405258</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>5.374605926066057</v>
+        <v>5.312259886117088</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2436929571585828</v>
+        <v>0.09141097005211743</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-0.926960996550091</v>
+        <v>-0.7672286686980241</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.079646372898105</v>
+        <v>3.272685136729906</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.3770551059586675</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.1063592431030922</v>
+        <v>0.1063592431030921</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.1479840124448244</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.5314152976778092</v>
+        <v>-0.5207133808993482</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.600057717440666</v>
+        <v>-0.6086852476110639</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2181032616808334</v>
+        <v>-0.2301925378966871</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.4433039148769132</v>
+        <v>-0.435466027531985</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.6063423110827656</v>
+        <v>-0.6095523912485403</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02636711129892021</v>
+        <v>0.005196787621972724</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.4199422874422902</v>
+        <v>-0.4063445359011699</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.5344564917705691</v>
+        <v>-0.5265306527051155</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.02605297155641513</v>
+        <v>0.005949186185864677</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.0213658322822279</v>
+        <v>0.02574904624051221</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.06070033577681819</v>
+        <v>-0.06524367744004173</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.6282115350213908</v>
+        <v>0.5984917177115894</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.2978625998611542</v>
+        <v>0.3426148057515414</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.05178823927150974</v>
+        <v>-0.05174587397680132</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.02957268761806</v>
+        <v>0.9889702433404663</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.05067368120833259</v>
+        <v>0.02201879791618435</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.1674051045911168</v>
+        <v>-0.1339702988477283</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.6044988417506844</v>
+        <v>0.637834854114964</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-8.869034166267108</v>
+        <v>-8.752086799970964</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-9.105025011908786</v>
+        <v>-8.952307880472167</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-7.524477928002593</v>
+        <v>-7.48529956427476</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-6.085770311601284</v>
+        <v>-6.022791325653956</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-6.569841160905226</v>
+        <v>-6.363811446882204</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-4.76734820815233</v>
+        <v>-4.687559333837997</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-6.092294878344658</v>
+        <v>-6.074604995721038</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-6.729428733438396</v>
+        <v>-6.776326939715569</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-4.970792102391814</v>
+        <v>-4.920913573900614</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-2.444163916603643</v>
+        <v>-2.45132567186701</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-2.955478230003393</v>
+        <v>-3.260445534042485</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-0.5865835103743415</v>
+        <v>-0.8709474613001663</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-1.351208970783375</v>
+        <v>-1.341525778220996</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-1.798896535519562</v>
+        <v>-1.630147242018794</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-0.09780801624680167</v>
+        <v>-0.005493951289533424</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-2.362074468969033</v>
+        <v>-2.299523753647937</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-2.893131638643808</v>
+        <v>-2.987189338267548</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-0.9036044416838622</v>
+        <v>-1.014963598903129</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.7765710255144752</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.5244019088241829</v>
+        <v>-0.524401908824183</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.5594368303379815</v>
@@ -1625,7 +1625,7 @@
         <v>-0.6976131107826911</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.429710653376253</v>
+        <v>-0.4297106533762531</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.8674397653913282</v>
+        <v>-0.8535995290157729</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.8984232915955023</v>
+        <v>-0.8967623566481738</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.7542439637884304</v>
+        <v>-0.7622436496765661</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.7658048487027913</v>
+        <v>-0.7911906902538485</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.8110922655874049</v>
+        <v>-0.8057878399545614</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.5907371013179055</v>
+        <v>-0.591205727516025</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.758585749349418</v>
+        <v>-0.7596534553200216</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.8174404480711076</v>
+        <v>-0.8227504879019828</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.5969081868236774</v>
+        <v>-0.603230374085159</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.4238580696869071</v>
+        <v>-0.3881305177351498</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.5251209475213661</v>
+        <v>-0.5541314244322046</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.07334868464247631</v>
+        <v>-0.1092561127804491</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.2764807370694405</v>
+        <v>-0.2814087513681751</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.344408164973398</v>
+        <v>-0.3251667818755568</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.008602245815169333</v>
+        <v>-0.007990944528207649</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.4259420870163478</v>
+        <v>-0.4172173056442465</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.5260207117907437</v>
+        <v>-0.5152104698069736</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.1602371493820561</v>
+        <v>-0.1540120542378905</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>-3.127040786278395</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-1.393103083229334</v>
+        <v>-1.393103083229331</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>-1.72886853758449</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-2.66023906605941</v>
+        <v>-2.605424614132572</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-2.162465743564856</v>
+        <v>-1.850614234482332</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-0.8675416760614953</v>
+        <v>-0.5079838888266648</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-4.728926538371235</v>
+        <v>-4.457124495047766</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-5.20943965772718</v>
+        <v>-5.480164850311358</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-3.572333773997265</v>
+        <v>-3.572197237800619</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-3.479933387779339</v>
+        <v>-3.45736164524118</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-4.095651742484228</v>
+        <v>-3.816319628062796</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-2.282603983003279</v>
+        <v>-2.269513073360717</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>5.811175992436278</v>
+        <v>5.885342129413582</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>5.99827288724836</v>
+        <v>6.009219597466758</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>14.89974731830269</v>
+        <v>13.96760474544377</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>-0.3655786645994631</v>
+        <v>-0.2050286382890232</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-1.152103500159761</v>
+        <v>-1.170294913777757</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>0.9076963454312666</v>
+        <v>1.181470436824798</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>0.4878312095442173</v>
+        <v>0.3424383868719645</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-0.2779144713228469</v>
+        <v>-0.1098129486003343</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>2.815951443403361</v>
+        <v>2.757146329016329</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>-0.3803310436614743</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.1694382599349504</v>
+        <v>-0.16943825993495</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.222359690614189</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.3627812579457051</v>
+        <v>-0.3669725302383283</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.288976217169251</v>
+        <v>-0.2513498336859754</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.1627344500519785</v>
+        <v>-0.1495077180545389</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.4918292060795207</v>
+        <v>-0.4817911513746819</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.5662440580228557</v>
+        <v>-0.5748039401849435</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.3831864723096891</v>
+        <v>-0.3850978771719385</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.3996073501864096</v>
+        <v>-0.3968793229136038</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.470448841238335</v>
+        <v>-0.4460081753559072</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.2717160584368495</v>
+        <v>-0.266936626985047</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.280763268028744</v>
+        <v>1.458334562260065</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.348330248947049</v>
+        <v>1.481289925872158</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>3.3753947027025</v>
+        <v>2.941505945020843</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>-0.04720759084127803</v>
+        <v>-0.02587580077668293</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.158335189730572</v>
+        <v>-0.1595642599875154</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1334879779237086</v>
+        <v>0.1765841570456849</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.07835565814282615</v>
+        <v>0.05600073564857076</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>-0.04060892241075434</v>
+        <v>-0.01779732779913196</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.4021564695972135</v>
+        <v>0.3766541063868607</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>-2.352842566115351</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>2.970254674578772</v>
+        <v>2.970254674578775</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>-1.866808558106216</v>
@@ -1939,7 +1939,7 @@
         <v>-1.751947197277012</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>3.552401503670387</v>
+        <v>3.552401503670384</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>-1.581879440024464</v>
@@ -1948,7 +1948,7 @@
         <v>-2.048042747744236</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>3.264190031185179</v>
+        <v>3.264190031185185</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-2.992308790582645</v>
+        <v>-2.910936350377918</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-3.838791770317744</v>
+        <v>-3.861680432894937</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1.201871103243807</v>
+        <v>1.225267045124483</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-3.086404541945573</v>
+        <v>-3.244418590434708</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-3.110856314703165</v>
+        <v>-3.079870803701839</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>2.063931515401133</v>
+        <v>2.168663528287718</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-2.680073708090373</v>
+        <v>-2.650666786626728</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-3.026770736442957</v>
+        <v>-3.120882296502307</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>2.173946642865391</v>
+        <v>2.204669516621172</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.2394529473091719</v>
+        <v>0.1048455609593489</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-0.9380379446508965</v>
+        <v>-0.9102195807228727</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>4.734022662082851</v>
+        <v>4.641003853143254</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>-0.5183368339474593</v>
+        <v>-0.4850165449418014</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>-0.2805127411362922</v>
+        <v>-0.4495801110470176</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>5.091389028161899</v>
+        <v>4.827018941598618</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>-0.5866546443947449</v>
+        <v>-0.5447912603985615</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-0.9405143780940859</v>
+        <v>-1.065655957765988</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>4.471020357838695</v>
+        <v>4.40202895284462</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>-0.223810001245259</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.2825402396190838</v>
+        <v>0.282540239619084</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>-0.1959298257511059</v>
@@ -2044,7 +2044,7 @@
         <v>-0.1838746172429391</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.3728402704121865</v>
+        <v>0.3728402704121863</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>-0.1579986125827239</v>
@@ -2053,7 +2053,7 @@
         <v>-0.2045591493677258</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.3260283199114344</v>
+        <v>0.3260283199114349</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.2584650274217778</v>
+        <v>-0.2524780726684824</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.3348215542714556</v>
+        <v>-0.345870361568305</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.1068421872671882</v>
+        <v>0.1075150985007067</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.3081268910544806</v>
+        <v>-0.3192372394941289</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.3149528739324614</v>
+        <v>-0.2983249299797862</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1995998974802587</v>
+        <v>0.2022859978474246</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.2501898915260581</v>
+        <v>-0.2500147517178288</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.2865145967610824</v>
+        <v>-0.2961797618296881</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.2043155585186214</v>
+        <v>0.2115485556362184</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.03184445845125885</v>
+        <v>0.01043487006824818</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.09517952675844599</v>
+        <v>-0.09233971405186261</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.4841610238042812</v>
+        <v>0.4756813626614552</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>-0.056835157797112</v>
+        <v>-0.05421039977650668</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>-0.03137003696444268</v>
+        <v>-0.04584080154820046</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.5751417005352412</v>
+        <v>0.5491159781201236</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>-0.05879277536393244</v>
+        <v>-0.05657713322249821</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.09800233336991561</v>
+        <v>-0.1135777496138141</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.4752108227891056</v>
+        <v>0.4685974622902407</v>
       </c>
     </row>
     <row r="46">
